--- a/原营销活动接口.xlsx
+++ b/原营销活动接口.xlsx
@@ -13,13 +13,16 @@
     <sheet name="新增过度营销控制信息" sheetId="36" r:id="rId4"/>
     <sheet name="查询过度营销控制信息" sheetId="37" r:id="rId5"/>
     <sheet name="删除过度营销控制信息" sheetId="38" r:id="rId6"/>
+    <sheet name="营销评价创建" sheetId="39" r:id="rId7"/>
+    <sheet name="营销评价查询" sheetId="40" r:id="rId8"/>
+    <sheet name="删除营销评价" sheetId="41" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="83">
   <si>
     <t>序号</t>
   </si>
@@ -60,6 +63,24 @@
     <t>deleteOverMarketingControl</t>
   </si>
   <si>
+    <t>营销评价创建</t>
+  </si>
+  <si>
+    <t>createCampaignEvaluation</t>
+  </si>
+  <si>
+    <t>营销评价查询</t>
+  </si>
+  <si>
+    <t>queryMarketingCampaignEvaluation</t>
+  </si>
+  <si>
+    <t>删除营销评价</t>
+  </si>
+  <si>
+    <t>removeMarketingCampaign</t>
+  </si>
+  <si>
     <t>服务英文名称</t>
   </si>
   <si>
@@ -142,6 +163,114 @@
   </si>
   <si>
     <t>Map</t>
+  </si>
+  <si>
+    <t>yxhdbsoo</t>
+  </si>
+  <si>
+    <t>营销活动编号</t>
+  </si>
+  <si>
+    <t>whxtygbh</t>
+  </si>
+  <si>
+    <t>用户id</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>yhmcoooo</t>
+  </si>
+  <si>
+    <t>用户名称</t>
+  </si>
+  <si>
+    <t>miaoshuo</t>
+  </si>
+  <si>
+    <t>营销总结评价</t>
+  </si>
+  <si>
+    <t>fileList</t>
+  </si>
+  <si>
+    <t>营销评价上传文件列表</t>
+  </si>
+  <si>
+    <t>|--wjmcoooo</t>
+  </si>
+  <si>
+    <t>文件名</t>
+  </si>
+  <si>
+    <t>|--fjurlooo</t>
+  </si>
+  <si>
+    <t>文件Url</t>
+  </si>
+  <si>
+    <t>xlbsoooo</t>
+  </si>
+  <si>
+    <t>评价内容序号</t>
+  </si>
+  <si>
+    <t>pageNum</t>
+  </si>
+  <si>
+    <t>当前页数</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>pageSize</t>
+  </si>
+  <si>
+    <t>每页条数</t>
+  </si>
+  <si>
+    <t>totalNum</t>
+  </si>
+  <si>
+    <t>总记录数</t>
+  </si>
+  <si>
+    <t>resultList</t>
+  </si>
+  <si>
+    <t>数据列表</t>
+  </si>
+  <si>
+    <t>|--xlbsoooo</t>
+  </si>
+  <si>
+    <t>评价ID</t>
+  </si>
+  <si>
+    <t>|--whxtygbh</t>
+  </si>
+  <si>
+    <t>|--yhmcoooo</t>
+  </si>
+  <si>
+    <t>|--miaoshuo</t>
+  </si>
+  <si>
+    <t>|--fileList</t>
+  </si>
+  <si>
+    <t>|--|--wjmcoooo</t>
+  </si>
+  <si>
+    <t>|--|--fjurlooo</t>
+  </si>
+  <si>
+    <t>序列标识</t>
+  </si>
+  <si>
+    <t>市场活动标识</t>
   </si>
 </sst>
 </file>
@@ -154,7 +283,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +341,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -793,10 +928,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -805,34 +940,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -844,104 +976,107 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -978,41 +1113,44 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1379,273 +1517,285 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="1" ht="17.4" spans="1:3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="15.6" spans="1:3">
-      <c r="A2" s="15">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="15.6" spans="1:3">
-      <c r="A3" s="15">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="15.6" spans="1:3">
-      <c r="A4" s="15">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="20" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="15.6" spans="1:3">
-      <c r="A5" s="15">
+      <c r="A5" s="16">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="15.6" spans="1:3">
-      <c r="A6" s="15">
+      <c r="A6" s="16">
         <v>5</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="15.6" spans="1:3">
-      <c r="A7" s="15">
+      <c r="A7" s="16">
         <v>6</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
+      <c r="B7" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" customFormat="1" ht="15.6" spans="1:3">
-      <c r="A8" s="15">
+      <c r="A8" s="16">
         <v>7</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
+      <c r="B8" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" customFormat="1" ht="15.6" spans="1:3">
-      <c r="A9" s="15">
+      <c r="A9" s="16">
         <v>8</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="21"/>
+      <c r="B9" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" customFormat="1" ht="15.6" spans="1:3">
-      <c r="A10" s="15">
+      <c r="A10" s="16">
         <v>9</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
     </row>
     <row r="11" customFormat="1" ht="15.6" spans="1:3">
-      <c r="A11" s="15">
+      <c r="A11" s="16">
         <v>10</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
     </row>
     <row r="12" customFormat="1" ht="15.6" spans="1:3">
-      <c r="A12" s="15">
+      <c r="A12" s="16">
         <v>11</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
     </row>
     <row r="13" customFormat="1" ht="15.6" spans="1:3">
-      <c r="A13" s="15">
+      <c r="A13" s="16">
         <v>12</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="24"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="25"/>
     </row>
     <row r="14" customFormat="1" ht="15.6" spans="1:3">
-      <c r="A14" s="15">
+      <c r="A14" s="16">
         <v>13</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="24"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="25"/>
     </row>
     <row r="15" customFormat="1" ht="15.6" spans="1:3">
-      <c r="A15" s="15">
+      <c r="A15" s="16">
         <v>14</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="24"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="25"/>
     </row>
     <row r="16" customFormat="1" ht="15.6" spans="1:3">
-      <c r="A16" s="15">
+      <c r="A16" s="16">
         <v>15</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="24"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="25"/>
     </row>
     <row r="17" customFormat="1" ht="15.6" spans="1:3">
-      <c r="A17" s="15">
+      <c r="A17" s="16">
         <v>16</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="24"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="25"/>
     </row>
     <row r="18" customFormat="1" ht="15.6" spans="1:3">
-      <c r="A18" s="15">
+      <c r="A18" s="16">
         <v>17</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="24"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="25"/>
     </row>
     <row r="19" customFormat="1" ht="15.6" spans="1:3">
-      <c r="A19" s="15">
+      <c r="A19" s="16">
         <v>18</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="24"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="25"/>
     </row>
     <row r="20" customFormat="1" ht="15.6" spans="1:3">
-      <c r="A20" s="15">
+      <c r="A20" s="16">
         <v>19</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="24"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="25"/>
     </row>
     <row r="21" customFormat="1" ht="15.6" spans="1:3">
-      <c r="A21" s="15">
+      <c r="A21" s="16">
         <v>20</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="24"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="25"/>
     </row>
     <row r="22" customFormat="1" ht="15.6" spans="1:3">
-      <c r="A22" s="15">
+      <c r="A22" s="16">
         <v>21</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="24"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="25"/>
     </row>
     <row r="23" customFormat="1" ht="15.6" spans="1:3">
-      <c r="A23" s="15">
+      <c r="A23" s="16">
         <v>22</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="24"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="25"/>
     </row>
     <row r="24" customFormat="1" ht="15.6" spans="1:3">
-      <c r="A24" s="15">
+      <c r="A24" s="16">
         <v>23</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="24"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="25"/>
     </row>
     <row r="25" customFormat="1" ht="15.6" spans="1:3">
-      <c r="A25" s="15">
+      <c r="A25" s="16">
         <v>24</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="24"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="25"/>
     </row>
     <row r="26" customFormat="1" ht="15.6" spans="1:3">
-      <c r="A26" s="15">
+      <c r="A26" s="16">
         <v>25</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="24"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="25"/>
     </row>
     <row r="27" customFormat="1" ht="15.6" spans="1:3">
-      <c r="A27" s="15">
+      <c r="A27" s="16">
         <v>26</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="24"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="25"/>
     </row>
     <row r="28" customFormat="1" ht="15.6" spans="1:3">
-      <c r="A28" s="15">
+      <c r="A28" s="16">
         <v>27</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="24"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="25"/>
     </row>
     <row r="29" customFormat="1" ht="15.6" spans="1:3">
-      <c r="A29" s="15">
+      <c r="A29" s="16">
         <v>28</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="24"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="25"/>
     </row>
     <row r="30" customFormat="1" ht="15.6" spans="1:3">
-      <c r="A30" s="15">
+      <c r="A30" s="16">
         <v>29</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="24"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="25"/>
     </row>
     <row r="31" customFormat="1" ht="15.6" spans="1:3">
-      <c r="A31" s="15">
+      <c r="A31" s="16">
         <v>30</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="24"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="25"/>
     </row>
     <row r="32" customFormat="1" ht="15.6" spans="1:3">
-      <c r="A32" s="15">
+      <c r="A32" s="16">
         <v>31</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="24"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="25"/>
     </row>
     <row r="33" customFormat="1" ht="15.6" spans="1:3">
-      <c r="A33" s="15">
+      <c r="A33" s="16">
         <v>32</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="24"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="25"/>
     </row>
     <row r="34" customFormat="1" ht="15.6" spans="1:3">
-      <c r="A34" s="15">
+      <c r="A34" s="16">
         <v>33</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="24"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="25"/>
     </row>
     <row r="35" customFormat="1" ht="15.6" spans="1:3">
-      <c r="A35" s="15">
+      <c r="A35" s="16">
         <v>34</v>
       </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="24"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1654,6 +1804,9 @@
     <hyperlink ref="B4" location="新增过度营销控制信息!A1" display="新增过度营销控制信息"/>
     <hyperlink ref="B5" location="查询过度营销控制信息!A1" display="查询过度营销控制信息"/>
     <hyperlink ref="B6" location="删除过度营销控制信息!A1" display="删除过度营销控制信息"/>
+    <hyperlink ref="B7" location="营销评价创建!A1" display="营销评价创建"/>
+    <hyperlink ref="B8" location="营销评价查询!A1" display="营销评价查询"/>
+    <hyperlink ref="B9" location="删除营销评价!A1" display="删除营销评价"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1667,7 +1820,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1679,7 +1832,7 @@
   <sheetData>
     <row r="1" ht="17.4" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
@@ -1690,12 +1843,12 @@
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
       <c r="H1" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" ht="17.4" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
@@ -1708,7 +1861,7 @@
     </row>
     <row r="3" ht="15.6" spans="1:7">
       <c r="A3" s="6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1719,25 +1872,25 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" ht="15.6" spans="1:7">
@@ -1745,17 +1898,17 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G5" s="8"/>
     </row>
@@ -1764,17 +1917,17 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G6" s="8"/>
     </row>
@@ -1783,17 +1936,17 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G7" s="8"/>
     </row>
@@ -1802,17 +1955,17 @@
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G8" s="8"/>
     </row>
@@ -1821,17 +1974,17 @@
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G9" s="8"/>
     </row>
@@ -1855,7 +2008,7 @@
     </row>
     <row r="12" ht="15.6" spans="1:7">
       <c r="A12" s="6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1865,26 +2018,26 @@
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="12" t="s">
+      <c r="A13" s="13" t="s">
         <v>23</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1892,13 +2045,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="11"/>
@@ -1963,7 +2116,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1975,7 +2128,7 @@
   <sheetData>
     <row r="1" ht="17.4" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
@@ -1986,12 +2139,12 @@
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
       <c r="H1" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" ht="17.4" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
@@ -2004,7 +2157,7 @@
     </row>
     <row r="3" ht="15.6" spans="1:7">
       <c r="A3" s="6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2015,25 +2168,25 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" ht="15.6" spans="1:7">
@@ -2056,7 +2209,7 @@
     </row>
     <row r="7" ht="15.6" spans="1:7">
       <c r="A7" s="6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -2066,26 +2219,26 @@
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>23</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2093,13 +2246,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="11"/>
@@ -2110,13 +2263,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="11"/>
@@ -2125,13 +2278,13 @@
     <row r="11" ht="15.6" spans="1:7">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="11"/>
@@ -2140,13 +2293,13 @@
     <row r="12" ht="15.6" spans="1:7">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="11"/>
@@ -2155,13 +2308,13 @@
     <row r="13" ht="15.6" spans="1:7">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="11"/>
@@ -2170,13 +2323,13 @@
     <row r="14" ht="15.6" spans="1:7">
       <c r="A14" s="9"/>
       <c r="B14" s="9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="11"/>
@@ -2235,7 +2388,7 @@
   <sheetData>
     <row r="1" ht="17.4" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
@@ -2246,12 +2399,12 @@
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
       <c r="H1" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" ht="17.4" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
@@ -2264,7 +2417,7 @@
     </row>
     <row r="3" ht="15.6" spans="1:7">
       <c r="A3" s="6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2275,25 +2428,25 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" ht="15.6" spans="1:7">
@@ -2301,17 +2454,17 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G5" s="8"/>
     </row>
@@ -2320,17 +2473,17 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G6" s="8"/>
     </row>
@@ -2339,17 +2492,17 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G7" s="8"/>
     </row>
@@ -2358,17 +2511,17 @@
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G8" s="8"/>
     </row>
@@ -2377,17 +2530,17 @@
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G9" s="8"/>
     </row>
@@ -2411,7 +2564,7 @@
     </row>
     <row r="12" ht="15.6" spans="1:7">
       <c r="A12" s="6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -2421,26 +2574,26 @@
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="12" t="s">
+      <c r="A13" s="13" t="s">
         <v>23</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2448,13 +2601,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="11"/>
@@ -2531,7 +2684,7 @@
   <sheetData>
     <row r="1" ht="17.4" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
@@ -2542,12 +2695,12 @@
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
       <c r="H1" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" ht="17.4" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
@@ -2560,7 +2713,7 @@
     </row>
     <row r="3" ht="15.6" spans="1:7">
       <c r="A3" s="6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2571,25 +2724,25 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" ht="15.6" spans="1:7">
@@ -2612,7 +2765,7 @@
     </row>
     <row r="7" ht="15.6" spans="1:7">
       <c r="A7" s="6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -2622,26 +2775,26 @@
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>23</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2649,13 +2802,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="11"/>
@@ -2666,13 +2819,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="11"/>
@@ -2681,13 +2834,13 @@
     <row r="11" ht="15.6" spans="1:7">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="11"/>
@@ -2696,13 +2849,13 @@
     <row r="12" ht="15.6" spans="1:7">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="11"/>
@@ -2711,13 +2864,13 @@
     <row r="13" ht="15.6" spans="1:7">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="11"/>
@@ -2726,13 +2879,13 @@
     <row r="14" ht="15.6" spans="1:7">
       <c r="A14" s="9"/>
       <c r="B14" s="9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="11"/>
@@ -2791,7 +2944,7 @@
   <sheetData>
     <row r="1" ht="17.4" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
@@ -2802,12 +2955,12 @@
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
       <c r="H1" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" ht="17.4" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
@@ -2820,7 +2973,7 @@
     </row>
     <row r="3" ht="15.6" spans="1:7">
       <c r="A3" s="6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2831,25 +2984,25 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" ht="15.6" spans="1:7">
@@ -2872,7 +3025,7 @@
     </row>
     <row r="7" ht="15.6" spans="1:7">
       <c r="A7" s="6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -2882,26 +3035,26 @@
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>23</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2909,13 +3062,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="11"/>
@@ -2954,4 +3107,937 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="18.1666666666667" customWidth="1"/>
+    <col min="2" max="3" width="22.8333333333333" customWidth="1"/>
+    <col min="4" max="4" width="17.8333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.4" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" ht="17.4" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" ht="15.6" spans="1:7">
+      <c r="A3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" ht="15.6" spans="1:7">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" ht="15.6" spans="1:7">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" ht="15.6" spans="1:7">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" ht="15.6" spans="1:7">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" ht="15.6" spans="1:7">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" ht="15.6" spans="1:7">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" ht="15.6" spans="1:7">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" ht="15.6" spans="1:7">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" ht="15.6" spans="1:7">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" ht="15.6" spans="1:7">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" ht="15.6" spans="1:7">
+      <c r="A15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="9">
+        <v>1</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A15:G15"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H1" location="服务目录!A1" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="18.1666666666667" customWidth="1"/>
+    <col min="2" max="3" width="22.8333333333333" customWidth="1"/>
+    <col min="4" max="4" width="17.8333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.4" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" ht="17.4" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" ht="15.6" spans="1:7">
+      <c r="A3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" ht="15.6" spans="1:7">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" ht="15.6" spans="1:7">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" ht="15.6" spans="1:7">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" ht="15.6" spans="1:7">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" ht="15.6" spans="1:7">
+      <c r="A11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="9">
+        <v>1</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" ht="15.6" spans="1:7">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" ht="15.6" spans="1:7">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" ht="15.6" spans="1:7">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" ht="15.6" spans="1:7">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" ht="15.6" spans="1:7">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" ht="15.6" spans="1:7">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A11:G11"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H1" location="服务目录!A1" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="18.1666666666667" customWidth="1"/>
+    <col min="2" max="3" width="22.8333333333333" customWidth="1"/>
+    <col min="4" max="4" width="17.8333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.4" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" ht="17.4" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" ht="15.6" spans="1:7">
+      <c r="A3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" ht="15.6" spans="1:7">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" ht="15.6" spans="1:7">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" ht="15.6" spans="1:7">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" ht="15.6" spans="1:7">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" ht="15.6" spans="1:7">
+      <c r="A10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="9">
+        <v>1</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A10:G10"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H1" location="服务目录!A1" display="返回"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>